--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/金融机构/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/金融机构/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1036 +538,614 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305.45</v>
+        <v>469.058602</v>
       </c>
       <c r="C2" t="n">
-        <v>938.27</v>
+        <v>2469.772357</v>
       </c>
       <c r="D2" t="n">
-        <v>350.88</v>
+        <v>19395.04679152</v>
       </c>
       <c r="E2" t="n">
-        <v>-52.85</v>
+        <v>28.1945816385</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>1983.01</v>
+        <v>33260.799686</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>19135.64</v>
+        <v>130662.156761</v>
       </c>
       <c r="K2" t="n">
-        <v>-102.97</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>713.992937</v>
+      </c>
+      <c r="L2" t="n">
+        <v>23346</v>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>1151.2</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>11278.68557746</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-2372.86666666667</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1566.3</v>
+      </c>
       <c r="Q2" t="n">
-        <v>-133.14</v>
+        <v>251</v>
       </c>
       <c r="R2" t="n">
-        <v>23940.92</v>
+        <v>227985.724326694</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>1036.15</v>
+        <v>6507.436967</v>
       </c>
       <c r="U2" t="n">
-        <v>-952.63</v>
+        <v>3542.74673274233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-455.6618025245</v>
+        <v>-727</v>
       </c>
       <c r="C3" t="n">
-        <v>1640.590644</v>
+        <v>5242</v>
       </c>
       <c r="D3" t="n">
-        <v>-1016.97678472631</v>
+        <v>26753</v>
       </c>
       <c r="E3" t="n">
-        <v>-51.23976174</v>
+        <v>252</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>1640.1650165505</v>
+        <v>36154</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>27911.778351975</v>
+        <v>113415</v>
       </c>
       <c r="K3" t="n">
-        <v>128.3590165879</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>1042</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10271</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>3006.5</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>-3927</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-6511</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2282</v>
+      </c>
       <c r="Q3" t="n">
-        <v>-156.80439353</v>
+        <v>1442</v>
       </c>
       <c r="R3" t="n">
-        <v>35637.6</v>
+        <v>196038</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>1589.230261212</v>
+        <v>6162</v>
       </c>
       <c r="U3" t="n">
-        <v>1345.8261795656</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>850.0626484708999</v>
+        <v>476</v>
       </c>
       <c r="C4" t="n">
-        <v>2254.2632</v>
+        <v>6868</v>
       </c>
       <c r="D4" t="n">
-        <v>857.159021826455</v>
+        <v>51780</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.12017934</v>
+        <v>1338</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>3910.0991979352</v>
+        <v>23150</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>36159.6053832504</v>
+        <v>129748</v>
       </c>
       <c r="K4" t="n">
-        <v>289.307071782</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>928</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10499</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>3600.15</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>801.95211965</v>
-      </c>
+        <v>12625</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-685</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5198</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>52996.2742370093</v>
+        <v>245774</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>2467.9643849894</v>
+        <v>3910</v>
       </c>
       <c r="U4" t="n">
-        <v>1642.7188841786</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1191.1275445009</v>
+        <v>412.7375579815</v>
       </c>
       <c r="C5" t="n">
-        <v>2463.5448077</v>
+        <v>6665.1494870959</v>
       </c>
       <c r="D5" t="n">
-        <v>1942.51643979374</v>
+        <v>54654.9075865412</v>
       </c>
       <c r="E5" t="n">
-        <v>211.235275216</v>
+        <v>1475.93938660982</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>4723.5698660365</v>
+        <v>14302.3222683364</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>33761.5592233971</v>
+        <v>153562.483675415</v>
       </c>
       <c r="K5" t="n">
-        <v>176.4039056578</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>419.5654469459</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7755.65541204741</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>10408.289574</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>811.4942715806</v>
-      </c>
+        <v>4139.19197349998</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-310.409313</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1352.15</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>55419.8957709983</v>
+        <v>266620.061817492</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>1722.3107334903</v>
+        <v>3915.3975501005</v>
       </c>
       <c r="U5" t="n">
-        <v>500.733793738701</v>
+        <v>18274.9707859188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1707.76938597</v>
+        <v>15654</v>
       </c>
       <c r="C6" t="n">
-        <v>2744.0452243</v>
+        <v>7488</v>
       </c>
       <c r="D6" t="n">
-        <v>735.589014111437</v>
+        <v>59777</v>
       </c>
       <c r="E6" t="n">
-        <v>278.613069471</v>
+        <v>1802</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>2832.7287086875</v>
+        <v>20834</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>42473.0338576364</v>
+        <v>130364</v>
       </c>
       <c r="K6" t="n">
-        <v>399.9379700899</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>482</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1198</v>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>16885.722871</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>194.4907739684</v>
-      </c>
+        <v>19177</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8169</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15328</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>71910.67248091919</v>
+        <v>307717</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>2563.3693399165</v>
+        <v>1688</v>
       </c>
       <c r="U6" t="n">
-        <v>4749.3361010865</v>
+        <v>28153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1651</v>
+        <v>-1037.708779</v>
       </c>
       <c r="C7" t="n">
-        <v>3129</v>
+        <v>8390.9860426655</v>
       </c>
       <c r="D7" t="n">
-        <v>3980</v>
+        <v>138771.95821041</v>
       </c>
       <c r="E7" t="n">
-        <v>504</v>
+        <v>-738.149404742788</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>11423</v>
+        <v>-17512.8835643248</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>50017</v>
+        <v>155584.364499584</v>
       </c>
       <c r="K7" t="n">
-        <v>80</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>-222.420942</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-10568.5299693679</v>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>18451</v>
+        <v>44111.1599175451</v>
       </c>
       <c r="O7" t="n">
-        <v>3416</v>
+        <v>11200.512892</v>
       </c>
       <c r="P7" t="n">
-        <v>1191</v>
+        <v>23630</v>
       </c>
       <c r="Q7" t="n">
-        <v>672</v>
+        <v>15780.6833054565</v>
       </c>
       <c r="R7" t="n">
-        <v>93505</v>
+        <v>352213.460896618</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>3041</v>
+        <v>2957.089227</v>
       </c>
       <c r="U7" t="n">
-        <v>-2440</v>
+        <v>-18133.6005386076</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8714</v>
+        <v>38685.8086690056</v>
       </c>
       <c r="C8" t="n">
-        <v>3117</v>
+        <v>10030.3997432601</v>
       </c>
       <c r="D8" t="n">
-        <v>5386</v>
+        <v>155721.777225802</v>
       </c>
       <c r="E8" t="n">
-        <v>177</v>
+        <v>952.522326447933</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>20713</v>
+        <v>26572.3703170384</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>54243</v>
+        <v>172181.830377768</v>
       </c>
       <c r="K8" t="n">
-        <v>571</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>530</v>
-      </c>
+        <v>-88.82687000120001</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-19531.0557049216</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>14370</v>
+        <v>50104.465693284</v>
       </c>
       <c r="O8" t="n">
-        <v>8986</v>
+        <v>-6226.711328</v>
       </c>
       <c r="P8" t="n">
-        <v>5437</v>
+        <v>11754</v>
       </c>
       <c r="Q8" t="n">
-        <v>1058</v>
+        <v>6585.02740514385</v>
       </c>
       <c r="R8" t="n">
-        <v>107343</v>
+        <v>461521.043408048</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>3303</v>
+        <v>5087.3471519984</v>
       </c>
       <c r="U8" t="n">
-        <v>-2317</v>
+        <v>9692.088260253729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-485</v>
+        <v>24731</v>
       </c>
       <c r="C9" t="n">
-        <v>4480</v>
+        <v>12810</v>
       </c>
       <c r="D9" t="n">
-        <v>1529</v>
+        <v>63988</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>1398</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>21100</v>
+        <v>10528</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>77381</v>
+        <v>142153</v>
       </c>
       <c r="K9" t="n">
-        <v>50</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>-153</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5381</v>
+      </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>20236</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-5340</v>
+        <v>-4598</v>
       </c>
       <c r="P9" t="n">
-        <v>3336</v>
+        <v>21754</v>
       </c>
       <c r="Q9" t="n">
-        <v>1517</v>
+        <v>5256</v>
       </c>
       <c r="R9" t="n">
-        <v>122790</v>
+        <v>356661</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>4112</v>
+        <v>2342</v>
       </c>
       <c r="U9" t="n">
-        <v>-5206</v>
+        <v>27545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1589</v>
+        <v>9591.902346020401</v>
       </c>
       <c r="C10" t="n">
-        <v>5864</v>
+        <v>11109.098186222</v>
       </c>
       <c r="D10" t="n">
-        <v>-788</v>
+        <v>-62841.5151106209</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>482.308513126996</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>11507</v>
+        <v>-9609.724479235259</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>132764</v>
+        <v>105210.314643747</v>
       </c>
       <c r="K10" t="n">
-        <v>416</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>-490.8967701939</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-6342.8544505233</v>
+      </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>4786</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>6272</v>
+        <v>-1228.8740178384</v>
       </c>
       <c r="P10" t="n">
-        <v>-1206</v>
+        <v>18784</v>
       </c>
       <c r="Q10" t="n">
-        <v>441</v>
+        <v>-6123.85890316973</v>
       </c>
       <c r="R10" t="n">
-        <v>168847</v>
+        <v>111350.186062511</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>4046</v>
+        <v>2562.8155087571</v>
       </c>
       <c r="U10" t="n">
-        <v>6312</v>
+        <v>2201.31430610467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>469.058602</v>
+        <v>-4930.0029157362</v>
       </c>
       <c r="C11" t="n">
-        <v>2469.772357</v>
+        <v>15993.9394695649</v>
       </c>
       <c r="D11" t="n">
-        <v>19395.04679152</v>
+        <v>340.738144397374</v>
       </c>
       <c r="E11" t="n">
-        <v>28.1945816385</v>
+        <v>1290.82478516576</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>33260.799686</v>
+        <v>-8837.5996711267</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>130662.156761</v>
+        <v>139960.399256497</v>
       </c>
       <c r="K11" t="n">
-        <v>713.992937</v>
+        <v>-267.4542255821</v>
       </c>
       <c r="L11" t="n">
-        <v>23346</v>
+        <v>-4756.7244456253</v>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>11278.68557746</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-2372.86666666667</v>
+        <v>5191.2677465019</v>
       </c>
       <c r="P11" t="n">
-        <v>-1566.3</v>
+        <v>7971</v>
       </c>
       <c r="Q11" t="n">
-        <v>251</v>
+        <v>2331.39347513349</v>
       </c>
       <c r="R11" t="n">
-        <v>227985.724326694</v>
+        <v>193327.560078123</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>6507.436967</v>
+        <v>3981.0102953373</v>
       </c>
       <c r="U11" t="n">
-        <v>3542.74673274233</v>
+        <v>-11057.5951004959</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-727</v>
+        <v>15612.1046832152</v>
       </c>
       <c r="C12" t="n">
-        <v>5242</v>
+        <v>21600.6679692517</v>
       </c>
       <c r="D12" t="n">
-        <v>26753</v>
+        <v>-2423.24953309918</v>
       </c>
       <c r="E12" t="n">
-        <v>252</v>
+        <v>2857.27226993263</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>36154</v>
+        <v>-2241.02581386977</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>113415</v>
+        <v>194162.927305611</v>
       </c>
       <c r="K12" t="n">
-        <v>1042</v>
+        <v>-160.8269864772</v>
       </c>
       <c r="L12" t="n">
-        <v>10271</v>
+        <v>1745.9047862114</v>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>-3927</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-6511</v>
+        <v>4914.3253064576</v>
       </c>
       <c r="P12" t="n">
-        <v>2282</v>
+        <v>33408</v>
       </c>
       <c r="Q12" t="n">
-        <v>1442</v>
+        <v>-6141.27521327062</v>
       </c>
       <c r="R12" t="n">
-        <v>196038</v>
+        <v>332265.587196891</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>6162</v>
+        <v>7125.0594772578</v>
       </c>
       <c r="U12" t="n">
-        <v>4188</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>476</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6868</v>
-      </c>
-      <c r="D13" t="n">
-        <v>51780</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1338</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>23150</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>129748</v>
-      </c>
-      <c r="K13" t="n">
-        <v>928</v>
-      </c>
-      <c r="L13" t="n">
-        <v>10499</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>12625</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-685</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5198</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="n">
-        <v>245774</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>3910</v>
-      </c>
-      <c r="U13" t="n">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>412.7375579815</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6665.1494870959</v>
-      </c>
-      <c r="D14" t="n">
-        <v>54654.9075865412</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1475.93938660982</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>14302.3222683364</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>153562.483675415</v>
-      </c>
-      <c r="K14" t="n">
-        <v>419.5654469459</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7755.65541204741</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>4139.19197349998</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-310.409313</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1352.15</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>266620.061817492</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>3915.3975501005</v>
-      </c>
-      <c r="U14" t="n">
-        <v>18274.9707859188</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>15654</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7488</v>
-      </c>
-      <c r="D15" t="n">
-        <v>59777</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1802</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>20834</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>130364</v>
-      </c>
-      <c r="K15" t="n">
-        <v>482</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-1198</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>19177</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8169</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15328</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>307717</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>1688</v>
-      </c>
-      <c r="U15" t="n">
-        <v>28153</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-1037.708779</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8390.9860426655</v>
-      </c>
-      <c r="D16" t="n">
-        <v>138771.95821041</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-738.149404742788</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>-17512.8835643248</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>155584.364499584</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-222.420942</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-10568.5299693679</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>44111.1599175451</v>
-      </c>
-      <c r="O16" t="n">
-        <v>11200.512892</v>
-      </c>
-      <c r="P16" t="n">
-        <v>23630</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>15780.6833054565</v>
-      </c>
-      <c r="R16" t="n">
-        <v>352213.460896618</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>2957.089227</v>
-      </c>
-      <c r="U16" t="n">
-        <v>-18133.6005386076</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>38685.8086690056</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10030.3997432601</v>
-      </c>
-      <c r="D17" t="n">
-        <v>155721.777225802</v>
-      </c>
-      <c r="E17" t="n">
-        <v>952.522326447933</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>26572.3703170384</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>172181.830377768</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-88.82687000120001</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-19531.0557049216</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>50104.465693284</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-6226.711328</v>
-      </c>
-      <c r="P17" t="n">
-        <v>11754</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>6585.02740514385</v>
-      </c>
-      <c r="R17" t="n">
-        <v>461521.043408048</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>5087.3471519984</v>
-      </c>
-      <c r="U17" t="n">
-        <v>9692.088260253729</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>24731</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12810</v>
-      </c>
-      <c r="D18" t="n">
-        <v>63988</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1398</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>10528</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>142153</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-153</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5381</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>-4598</v>
-      </c>
-      <c r="P18" t="n">
-        <v>21754</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5256</v>
-      </c>
-      <c r="R18" t="n">
-        <v>356661</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>2342</v>
-      </c>
-      <c r="U18" t="n">
-        <v>27545</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9591.902346020401</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11109.098186222</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-62841.5151106209</v>
-      </c>
-      <c r="E19" t="n">
-        <v>482.308513126996</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>-9609.724479235259</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>105210.314643747</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-490.8967701939</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-6342.8544505233</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>-1228.8740178384</v>
-      </c>
-      <c r="P19" t="n">
-        <v>18784</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-6123.85890316973</v>
-      </c>
-      <c r="R19" t="n">
-        <v>111350.186062511</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>2562.8155087571</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2201.31430610467</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-4930.0029157362</v>
-      </c>
-      <c r="C20" t="n">
-        <v>15993.9394695649</v>
-      </c>
-      <c r="D20" t="n">
-        <v>340.738144397374</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1290.82478516576</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>-8837.5996711267</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>139960.399256497</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-267.4542255821</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-4756.7244456253</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>5191.2677465019</v>
-      </c>
-      <c r="P20" t="n">
-        <v>7971</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2331.39347513349</v>
-      </c>
-      <c r="R20" t="n">
-        <v>193327.560078123</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>3981.0102953373</v>
-      </c>
-      <c r="U20" t="n">
-        <v>-11057.5951004959</v>
+        <v>9412.163859390361</v>
       </c>
     </row>
   </sheetData>
